--- a/InputData/ctrl-settings/BIEfIE/Boolean Include Emissions from Imported Electricity.xlsx
+++ b/InputData/ctrl-settings/BIEfIE/Boolean Include Emissions from Imported Electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\template_state_3.3\ctrl-settings\BIEfIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\MA\ctrl-settings\BIEfIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E946B7A5-9FED-42FB-AF09-CA784FBB453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{361C4669-50CE-4C4D-ACB7-EA75AD6855CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="0" windowWidth="15240" windowHeight="17010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="885" windowWidth="21945" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>This variable is a control lever.  A control lever is neither a policy nor input data.</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Include Emissions from Imported Electricity</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
   </si>
 </sst>
 </file>
@@ -97,9 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,53 +442,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -503,7 +513,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
